--- a/features/android/SignUp_SymlexVPN.xlsx
+++ b/features/android/SignUp_SymlexVPN.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\features\android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625C6DE1-9F4F-49E0-9F3B-E85FB6DFBF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97346544-CC11-4557-9C0A-E6B15F118386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="signup" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
-  <si>
-    <t xml:space="preserve">Jira Task No: 1419 </t>
-  </si>
   <si>
     <t>Test Case ID</t>
   </si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>Need to show the message - *username is already taken. Please, try another"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario : Sign Up SymlexVPN </t>
   </si>
 </sst>
 </file>
@@ -557,14 +557,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -595,25 +587,40 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="56">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -727,28 +734,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -791,6 +776,21 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1271,15 +1271,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G16" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G16" headerRowDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Title/Description" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Template-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1490,7 +1490,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="A4:G16"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1506,15 +1506,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
+      <c r="A1" s="27" t="s">
+        <v>56</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1536,13 +1536,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1564,26 +1564,26 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="C3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="F3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="G3" s="26" t="s">
         <v>6</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>7</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1607,23 +1607,23 @@
     </row>
     <row r="4" spans="1:26" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="26" t="s">
-        <v>10</v>
+      <c r="D4" s="15" t="s">
+        <v>22</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1647,20 +1647,20 @@
     </row>
     <row r="5" spans="1:26" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="3"/>
@@ -1685,20 +1685,20 @@
     </row>
     <row r="6" spans="1:26" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="3"/>
@@ -1723,20 +1723,20 @@
     </row>
     <row r="7" spans="1:26" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="F7" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="3"/>
@@ -1761,20 +1761,20 @@
     </row>
     <row r="8" spans="1:26" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="F8" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="3"/>
@@ -1799,20 +1799,20 @@
     </row>
     <row r="9" spans="1:26" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="15"/>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>37</v>
+      <c r="E9" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="4"/>
@@ -1837,20 +1837,20 @@
     </row>
     <row r="10" spans="1:26" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="4"/>
@@ -1875,20 +1875,20 @@
     </row>
     <row r="11" spans="1:26" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>44</v>
-      </c>
       <c r="F11" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="1"/>
@@ -1913,20 +1913,20 @@
     </row>
     <row r="12" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="E12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="1"/>
@@ -1951,20 +1951,20 @@
     </row>
     <row r="13" spans="1:26" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="1"/>
@@ -1989,20 +1989,20 @@
     </row>
     <row r="14" spans="1:26" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="E14" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>51</v>
-      </c>
       <c r="F14" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="1"/>
@@ -2027,20 +2027,20 @@
     </row>
     <row r="15" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>51</v>
+      <c r="E15" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="1"/>
@@ -2065,20 +2065,20 @@
     </row>
     <row r="16" spans="1:26" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="E16" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>56</v>
-      </c>
       <c r="F16" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="1"/>
